--- a/venv/output/investment_results.xlsx
+++ b/venv/output/investment_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/venv/output/investment_results.xlsx
+++ b/venv/output/investment_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2024-05-12</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -473,14 +469,14 @@
       <c r="B2" t="n">
         <v>0.008200000000000001</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D2" t="n">
         <v>45044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.041574</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +488,14 @@
       <c r="B3" t="n">
         <v>0.0061</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D3" t="n">
         <v>45044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.030927</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -511,14 +507,14 @@
       <c r="B4" t="n">
         <v>0.0195</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D4" t="n">
         <v>45044</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09886499999999999</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="5">
@@ -530,14 +526,14 @@
       <c r="B5" t="n">
         <v>0.0257</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="C5" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D5" t="n">
         <v>45044</v>
       </c>
       <c r="E5" t="n">
-        <v>0.130299</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="6">
@@ -549,14 +545,14 @@
       <c r="B6" t="n">
         <v>0.012</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C6" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D6" t="n">
         <v>45044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06084</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +564,14 @@
       <c r="B7" t="n">
         <v>0.0237</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D7" t="n">
         <v>45044</v>
       </c>
       <c r="E7" t="n">
-        <v>0.120159</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -587,14 +583,14 @@
       <c r="B8" t="n">
         <v>0.0233</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="C8" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D8" t="n">
         <v>45044</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118131</v>
+        <v>6.990000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -606,14 +602,14 @@
       <c r="B9" t="n">
         <v>0.0046</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="C9" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D9" t="n">
         <v>45044</v>
       </c>
       <c r="E9" t="n">
-        <v>0.023322</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="10">
@@ -625,14 +621,14 @@
       <c r="B10" t="n">
         <v>0.0052</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D10" t="n">
         <v>45044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.026364</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="11">
@@ -644,14 +640,14 @@
       <c r="B11" t="n">
         <v>0.0068</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="C11" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D11" t="n">
         <v>45044</v>
       </c>
       <c r="E11" t="n">
-        <v>0.034476</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="12">
@@ -663,14 +659,14 @@
       <c r="B12" t="n">
         <v>0.0051</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="C12" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D12" t="n">
         <v>45044</v>
       </c>
       <c r="E12" t="n">
-        <v>0.025857</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="13">
@@ -682,14 +678,14 @@
       <c r="B13" t="n">
         <v>0.0077</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="C13" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D13" t="n">
         <v>45044</v>
       </c>
       <c r="E13" t="n">
-        <v>0.039039</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="14">
@@ -701,14 +697,14 @@
       <c r="B14" t="n">
         <v>0.0067</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="C14" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D14" t="n">
         <v>45044</v>
       </c>
       <c r="E14" t="n">
-        <v>0.033969</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="15">
@@ -720,14 +716,14 @@
       <c r="B15" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D15" t="n">
         <v>45044</v>
       </c>
       <c r="E15" t="n">
-        <v>0.024843</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="16">
@@ -739,14 +735,14 @@
       <c r="B16" t="n">
         <v>0.008500000000000001</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="C16" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D16" t="n">
         <v>45044</v>
       </c>
       <c r="E16" t="n">
-        <v>0.043095</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="17">
@@ -758,14 +754,14 @@
       <c r="B17" t="n">
         <v>0.0153</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D17" t="n">
         <v>45044</v>
       </c>
       <c r="E17" t="n">
-        <v>0.077571</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="18">
@@ -777,14 +773,14 @@
       <c r="B18" t="n">
         <v>0.081</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D18" t="n">
         <v>45044</v>
       </c>
       <c r="E18" t="n">
-        <v>0.41067</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="19">
@@ -796,14 +792,14 @@
       <c r="B19" t="n">
         <v>0.0072</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D19" t="n">
         <v>45044</v>
       </c>
       <c r="E19" t="n">
-        <v>0.036504</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="20">
@@ -815,14 +811,14 @@
       <c r="B20" t="n">
         <v>0.0043</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D20" t="n">
         <v>45044</v>
       </c>
       <c r="E20" t="n">
-        <v>0.021801</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +830,14 @@
       <c r="B21" t="n">
         <v>0.0094</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="C21" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D21" t="n">
         <v>45044</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04765800000000001</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="22">
@@ -853,14 +849,14 @@
       <c r="B22" t="n">
         <v>0.0267</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D22" s="2" t="n">
+      <c r="C22" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D22" t="n">
         <v>45044</v>
       </c>
       <c r="E22" t="n">
-        <v>0.135369</v>
+        <v>8.010000000000002</v>
       </c>
     </row>
     <row r="23">
@@ -872,14 +868,14 @@
       <c r="B23" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="C23" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D23" t="n">
         <v>45044</v>
       </c>
       <c r="E23" t="n">
-        <v>0.34983</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="24">
@@ -891,14 +887,14 @@
       <c r="B24" t="n">
         <v>0.008500000000000001</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D24" t="n">
         <v>45044</v>
       </c>
       <c r="E24" t="n">
-        <v>0.043095</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="25">
@@ -910,14 +906,14 @@
       <c r="B25" t="n">
         <v>0.0766</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="C25" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D25" t="n">
         <v>45044</v>
       </c>
       <c r="E25" t="n">
-        <v>0.388362</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="26">
@@ -929,14 +925,14 @@
       <c r="B26" t="n">
         <v>0.0303</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D26" t="n">
         <v>45044</v>
       </c>
       <c r="E26" t="n">
-        <v>0.153621</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="27">
@@ -948,14 +944,14 @@
       <c r="B27" t="n">
         <v>0.0094</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="C27" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D27" t="n">
         <v>45044</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04765800000000001</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="28">
@@ -967,14 +963,14 @@
       <c r="B28" t="n">
         <v>0.0351</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D28" s="2" t="n">
+      <c r="C28" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D28" t="n">
         <v>45044</v>
       </c>
       <c r="E28" t="n">
-        <v>0.177957</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="29">
@@ -986,14 +982,14 @@
       <c r="B29" t="n">
         <v>0.0274</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D29" s="2" t="n">
+      <c r="C29" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D29" t="n">
         <v>45044</v>
       </c>
       <c r="E29" t="n">
-        <v>0.138918</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1005,14 +1001,14 @@
       <c r="B30" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D30" s="2" t="n">
+      <c r="C30" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D30" t="n">
         <v>45044</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06945899999999999</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="31">
@@ -1024,14 +1020,14 @@
       <c r="B31" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D31" s="2" t="n">
+      <c r="C31" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D31" t="n">
         <v>45044</v>
       </c>
       <c r="E31" t="n">
-        <v>0.044109</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="32">
@@ -1043,14 +1039,14 @@
       <c r="B32" t="n">
         <v>0.009900000000000001</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D32" s="2" t="n">
+      <c r="C32" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D32" t="n">
         <v>45044</v>
       </c>
       <c r="E32" t="n">
-        <v>0.050193</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="33">
@@ -1062,14 +1058,14 @@
       <c r="B33" t="n">
         <v>0.0078</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D33" s="2" t="n">
+      <c r="C33" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D33" t="n">
         <v>45044</v>
       </c>
       <c r="E33" t="n">
-        <v>0.039546</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="34">
@@ -1081,14 +1077,14 @@
       <c r="B34" t="n">
         <v>0.0104</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D34" t="n">
         <v>45044</v>
       </c>
       <c r="E34" t="n">
-        <v>0.052728</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="35">
@@ -1100,14 +1096,14 @@
       <c r="B35" t="n">
         <v>0.1286</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D35" s="2" t="n">
+      <c r="C35" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D35" t="n">
         <v>45044</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6520019999999999</v>
+        <v>38.57999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1119,14 +1115,14 @@
       <c r="B36" t="n">
         <v>0.0065</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D36" s="2" t="n">
+      <c r="C36" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D36" t="n">
         <v>45044</v>
       </c>
       <c r="E36" t="n">
-        <v>0.032955</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="37">
@@ -1138,14 +1134,14 @@
       <c r="B37" t="n">
         <v>0.0254</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D37" s="2" t="n">
+      <c r="C37" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D37" t="n">
         <v>45044</v>
       </c>
       <c r="E37" t="n">
-        <v>0.128778</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="38">
@@ -1157,14 +1153,14 @@
       <c r="B38" t="n">
         <v>0.0046</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D38" s="2" t="n">
+      <c r="C38" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D38" t="n">
         <v>45044</v>
       </c>
       <c r="E38" t="n">
-        <v>0.023322</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39">
@@ -1176,14 +1172,14 @@
       <c r="B39" t="n">
         <v>0.0134</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D39" s="2" t="n">
+      <c r="C39" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D39" t="n">
         <v>45044</v>
       </c>
       <c r="E39" t="n">
-        <v>0.067938</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="40">
@@ -1195,14 +1191,14 @@
       <c r="B40" t="n">
         <v>0.0066</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D40" s="2" t="n">
+      <c r="C40" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D40" t="n">
         <v>45044</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03346200000000001</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="41">
@@ -1214,14 +1210,14 @@
       <c r="B41" t="n">
         <v>0.0105</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D41" s="2" t="n">
+      <c r="C41" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D41" t="n">
         <v>45044</v>
       </c>
       <c r="E41" t="n">
-        <v>0.053235</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="42">
@@ -1233,14 +1229,14 @@
       <c r="B42" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D42" s="2" t="n">
+      <c r="C42" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D42" t="n">
         <v>45044</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06945899999999999</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="43">
@@ -1252,14 +1248,14 @@
       <c r="B43" t="n">
         <v>0.0491</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D43" s="2" t="n">
+      <c r="C43" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D43" t="n">
         <v>45044</v>
       </c>
       <c r="E43" t="n">
-        <v>0.248937</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="44">
@@ -1271,14 +1267,14 @@
       <c r="B44" t="n">
         <v>0.0105</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D44" s="2" t="n">
+      <c r="C44" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D44" t="n">
         <v>45044</v>
       </c>
       <c r="E44" t="n">
-        <v>0.053235</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="45">
@@ -1290,14 +1286,14 @@
       <c r="B45" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D45" s="2" t="n">
+      <c r="C45" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D45" t="n">
         <v>45044</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06945899999999999</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="46">
@@ -1309,14 +1305,14 @@
       <c r="B46" t="n">
         <v>0.0102</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D46" s="2" t="n">
+      <c r="C46" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D46" t="n">
         <v>45044</v>
       </c>
       <c r="E46" t="n">
-        <v>0.051714</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="47">
@@ -1328,14 +1324,14 @@
       <c r="B47" t="n">
         <v>0.006</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D47" s="2" t="n">
+      <c r="C47" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D47" t="n">
         <v>45044</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03042</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="48">
@@ -1347,14 +1343,14 @@
       <c r="B48" t="n">
         <v>0.0101</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="D48" s="2" t="n">
+      <c r="C48" t="n">
+        <v>45043</v>
+      </c>
+      <c r="D48" t="n">
         <v>45044</v>
       </c>
       <c r="E48" t="n">
-        <v>0.051207</v>
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>
